--- a/بترانس/بترانس.xlsx
+++ b/بترانس/بترانس.xlsx
@@ -12,6 +12,9 @@
     <sheet name="تاریخچه خرید" sheetId="6" r:id="rId3"/>
     <sheet name="تاریخچه فروش" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -272,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +324,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -921,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,19 +1021,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,88 +1069,196 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,124 +1279,58 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1264,16 +1339,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1282,46 +1363,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,16 +1375,40 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1348,61 +1417,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1421,6 +1451,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="مدیریت سرمایه"/>
+      <sheetName val="محاسبه مدیریت سرمایه"/>
+      <sheetName val="پرتفوی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5">
+            <v>1466894651</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1712,9 +1771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,38 +1793,38 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="156" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="158"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="34" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1797,112 +1856,130 @@
       <c r="J3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="160" t="s">
+      <c r="K3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="161" t="s">
+      <c r="L3" s="33" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="32"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="47">
+      <c r="B4" s="36">
         <f>IF(L4&gt;0, C4/L4,"RF")</f>
         <v>-9.9261059795819158</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="37">
         <f>(D4/Q4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="38">
         <v>0</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="36">
         <f>IF(L4&gt;0, F4/L4,"RF")</f>
         <v>4.0291686922702974</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="37">
         <f>(G4/Q4)-1</f>
         <v>0.40591634832010981</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="38">
         <v>28706</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="36">
         <f>IF(L4&gt;0, I4/L4,"RF")</f>
         <v>1.3179387457462326</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="37">
         <f>(J4/Q4)-1</f>
         <v>0.13277500244881968</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="38">
         <v>23129</v>
       </c>
-      <c r="K4" s="159">
+      <c r="K4" s="43">
         <f>IF(L4&gt;0, N4-M4*R4, 0)</f>
         <v>5440765</v>
       </c>
-      <c r="L4" s="162">
+      <c r="L4" s="44">
         <f>IF(1-(M4/Q4)&gt;0, 1-(M4/Q4), 0)</f>
         <v>0.10074444117935155</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="39">
         <v>18361</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="53">
         <f>R4*Q4</f>
         <v>54005610</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="37">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
-        <v>8.4531134616028219E-3</v>
-      </c>
-      <c r="P4" s="36">
-        <v>643640361</v>
-      </c>
-      <c r="Q4" s="36">
+        <v>3.7090359531210806E-3</v>
+      </c>
+      <c r="P4" s="54">
+        <f>'[1]مدیریت سرمایه'!$B$5</f>
+        <v>1466894651</v>
+      </c>
+      <c r="Q4" s="54">
         <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
         <v>20418</v>
       </c>
-      <c r="R4" s="45">
+      <c r="R4" s="49">
         <f>SUM('تاریخچه خرید'!Q4:Q17)-SUM('تاریخچه فروش'!G4:G11)</f>
         <v>2645</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="52" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="47"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K4:K5"/>
@@ -1911,24 +1988,7 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -1962,44 +2022,44 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="64" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="78" t="s">
+      <c r="G2" s="109"/>
+      <c r="H2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="105" t="s">
+      <c r="I2" s="119"/>
+      <c r="J2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="68" t="s">
+      <c r="K2" s="85"/>
+      <c r="L2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="74" t="s">
+      <c r="M2" s="113"/>
+      <c r="N2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="37" t="s">
+      <c r="O2" s="60"/>
+      <c r="P2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="74" t="s">
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="75"/>
-      <c r="U2" s="64" t="s">
+      <c r="T2" s="60"/>
+      <c r="U2" s="110" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2013,7 +2073,7 @@
       <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2059,401 +2119,401 @@
       <c r="T3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="65"/>
+      <c r="U3" s="111"/>
     </row>
     <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
-      <c r="B4" s="53">
+      <c r="B4" s="86">
         <v>1</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="65">
         <v>2</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="88">
         <v>3</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="103"/>
+      <c r="I4" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="86">
         <v>25070</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="57" t="s">
+      <c r="N4" s="103"/>
+      <c r="O4" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="53" t="s">
+      <c r="P4" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="110" t="s">
+      <c r="S4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="72" t="s">
+      <c r="T4" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="82" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="52"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="96"/>
     </row>
     <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
-      <c r="B6" s="98">
+      <c r="B6" s="92">
         <v>1</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="71">
         <v>2</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="94">
         <v>3</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="85" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="80">
+      <c r="M6" s="94">
         <v>25070</v>
       </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="85" t="s">
+      <c r="N6" s="55"/>
+      <c r="O6" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="98" t="s">
+      <c r="P6" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="101" t="s">
+      <c r="Q6" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="107" t="s">
+      <c r="R6" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="112" t="s">
+      <c r="S6" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="99" t="s">
+      <c r="T6" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="90" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="51"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="82"/>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="52"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="96"/>
     </row>
     <row r="10" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="90"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="91"/>
     </row>
     <row r="12" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="51"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="82"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="52"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="96"/>
     </row>
     <row r="14" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="90"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="91"/>
     </row>
     <row r="16" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="51"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="82"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="104"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="83"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
@@ -2486,38 +2546,100 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="U16:U17"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J16:J17"/>
@@ -2542,100 +2664,38 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T4:T5" r:id="rId1" display="tot_990106.png"/>
@@ -2653,7 +2713,7 @@
   <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L5"/>
+      <selection activeCell="Q4" sqref="Q4:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2673,41 +2733,41 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="109"/>
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="141" t="s">
+      <c r="S2" s="60"/>
+      <c r="T2" s="120" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2745,359 +2805,360 @@
       <c r="L3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="48"/>
       <c r="R3" s="24" t="s">
         <v>36</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="141"/>
+      <c r="T3" s="120"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="47">
+      <c r="B4" s="36">
         <f>IF(K4&gt;0, C4/K4,"RF")</f>
         <v>-9.9261059795819158</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="37">
         <f>(D4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="38">
         <v>0</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="36">
         <f>IF(K4&gt;0, F4/K4,"RF")</f>
         <v>4.124939231891104</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="37">
         <f>(G4/P4)-1</f>
         <v>0.41556469781565286</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="38">
         <v>28903</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="36">
         <f>IF(K4&gt;0, I4/K4,"RF")</f>
         <v>3.068546426835197</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="37">
         <f>(J4/P4)-1</f>
         <v>0.30913899500440789</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="38">
         <v>26730</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="125">
         <f>IF(1-(L4/P4)&gt;0, 1-(L4/P4), 0)</f>
         <v>0.10074444117935155</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="39">
         <v>18361</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="53">
         <f>P4*Q4</f>
         <v>69543708</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="37">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
-        <v>1.1120860317460318E-2</v>
-      </c>
-      <c r="O4" s="36">
-        <v>630000000</v>
-      </c>
-      <c r="P4" s="36">
+        <v>4.7761725732818148E-3</v>
+      </c>
+      <c r="O4" s="54">
+        <f>'[1]مدیریت سرمایه'!$B$5</f>
+        <v>1466894651</v>
+      </c>
+      <c r="P4" s="121">
         <v>20418</v>
       </c>
-      <c r="Q4" s="138">
+      <c r="Q4" s="122">
         <v>3406</v>
       </c>
-      <c r="R4" s="110" t="s">
+      <c r="R4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="61" t="s">
+      <c r="S4" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="52" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="47"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="46"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="52"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="47"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="46"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="52"/>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="140"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="46"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="52"/>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="124"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="114"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="136"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="125"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="115"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="137"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="130"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="128"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="146"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="131"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="129"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="147"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="124"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="114"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="136"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="125"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="115"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="137"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="128"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="146"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="131"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="129"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="147"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="124"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="114"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="136"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="125"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="115"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="137"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="S20" s="31"/>
@@ -3109,72 +3170,54 @@
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
@@ -3199,58 +3242,76 @@
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R4:R5" r:id="rId1" display="sig_990106.png"/>
@@ -3265,7 +3326,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H5"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3283,158 +3344,186 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="G2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="141" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="120" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="32"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="29" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="141"/>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="146">
+      <c r="B4" s="167">
         <f>D4-(F4*G4)</f>
         <v>4378033</v>
       </c>
-      <c r="C4" s="147">
+      <c r="C4" s="168">
         <f>E4/F4-1</f>
         <v>0.28176119110588704</v>
       </c>
-      <c r="D4" s="146">
+      <c r="D4" s="167">
         <f>E4*G4</f>
         <v>19916131</v>
       </c>
-      <c r="E4" s="146">
+      <c r="E4" s="164">
         <v>26171</v>
       </c>
-      <c r="F4" s="151">
+      <c r="F4" s="157">
         <v>20418</v>
       </c>
-      <c r="G4" s="148">
+      <c r="G4" s="154">
         <v>761</v>
       </c>
-      <c r="H4" s="142" t="s">
+      <c r="H4" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="148" t="s">
+      <c r="J4" s="154" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="148"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="146"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="148"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="154"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="146"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="148"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="148"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="154"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="148"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="154"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="148"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="154"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="148"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
@@ -3451,34 +3540,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4:H5" r:id="rId1" display="tech_990112.png"/>

--- a/بترانس/بترانس.xlsx
+++ b/بترانس/بترانس.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="دارایی فعلی" sheetId="3" r:id="rId1"/>
@@ -1457,26 +1457,24 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="پرتفوی"/>
+      <sheetName val="سرمایه"/>
+      <sheetName val="بازدهی ماهانه"/>
+      <sheetName val="واریز و برداشت"/>
       <sheetName val="مدیریت سرمایه"/>
-      <sheetName val="محاسبه مدیریت سرمایه"/>
-      <sheetName val="پرتفوی"/>
-      <sheetName val="تحلیل"/>
-      <sheetName val="تاریخچه خرید"/>
-      <sheetName val="تاریخچه فروش"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="5">
           <cell r="B5">
-            <v>1466894651</v>
+            <v>90652507.573176518</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1771,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4:D5"/>
     </sheetView>
@@ -1923,11 +1921,11 @@
       </c>
       <c r="O4" s="37">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
-        <v>3.7090359531210806E-3</v>
+        <v>6.0017810269706061E-2</v>
       </c>
       <c r="P4" s="54">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
+        <v>90652507.573176518</v>
       </c>
       <c r="Q4" s="54">
         <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
@@ -2001,7 +1999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomLeft" activeCell="S6" sqref="S6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2865,11 +2863,11 @@
       </c>
       <c r="N4" s="37">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
-        <v>4.7761725732818148E-3</v>
+        <v>7.7285694434260435E-2</v>
       </c>
       <c r="O4" s="54">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
+        <v>90652507.573176518</v>
       </c>
       <c r="P4" s="121">
         <v>20418</v>
@@ -3324,7 +3322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>

--- a/بترانس/بترانس.xlsx
+++ b/بترانس/بترانس.xlsx
@@ -1462,6 +1462,7 @@
       <sheetName val="بازدهی ماهانه"/>
       <sheetName val="واریز و برداشت"/>
       <sheetName val="مدیریت سرمایه"/>
+      <sheetName val="واچ لیست"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1471,10 +1472,11 @@
       <sheetData sheetId="4">
         <row r="5">
           <cell r="B5">
-            <v>90652507.573176518</v>
+            <v>86588850.975599647</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1769,9 +1771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D5"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,9 +1873,9 @@
       <c r="S3" s="34"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36">
+      <c r="B4" s="36" t="str">
         <f>IF(L4&gt;0, C4/L4,"RF")</f>
-        <v>-9.9261059795819158</v>
+        <v>RF</v>
       </c>
       <c r="C4" s="37">
         <f>(D4/Q4)-1</f>
@@ -1882,9 +1884,9 @@
       <c r="D4" s="38">
         <v>0</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="36" t="str">
         <f>IF(L4&gt;0, F4/L4,"RF")</f>
-        <v>4.0291686922702974</v>
+        <v>RF</v>
       </c>
       <c r="F4" s="37">
         <f>(G4/Q4)-1</f>
@@ -1893,9 +1895,9 @@
       <c r="G4" s="38">
         <v>28706</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="36" t="str">
         <f>IF(L4&gt;0, I4/L4,"RF")</f>
-        <v>1.3179387457462326</v>
+        <v>RF</v>
       </c>
       <c r="I4" s="37">
         <f>(J4/Q4)-1</f>
@@ -1906,26 +1908,26 @@
       </c>
       <c r="K4" s="43">
         <f>IF(L4&gt;0, N4-M4*R4, 0)</f>
-        <v>5440765</v>
+        <v>0</v>
       </c>
       <c r="L4" s="44">
         <f>IF(1-(M4/Q4)&gt;0, 1-(M4/Q4), 0)</f>
-        <v>0.10074444117935155</v>
+        <v>0</v>
       </c>
       <c r="M4" s="39">
-        <v>18361</v>
+        <v>24317</v>
       </c>
       <c r="N4" s="53">
         <f>R4*Q4</f>
         <v>54005610</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="37" t="str">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
-        <v>6.0017810269706061E-2</v>
+        <v>Risk free</v>
       </c>
       <c r="P4" s="54">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>90652507.573176518</v>
+        <v>86588850.975599647</v>
       </c>
       <c r="Q4" s="54">
         <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
@@ -1999,7 +2001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S6" sqref="S6:S7"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2711,7 +2713,7 @@
   <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q5"/>
+      <selection activeCell="L6" sqref="L6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2817,9 +2819,9 @@
       <c r="T3" s="120"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36">
+      <c r="B4" s="36" t="str">
         <f>IF(K4&gt;0, C4/K4,"RF")</f>
-        <v>-9.9261059795819158</v>
+        <v>RF</v>
       </c>
       <c r="C4" s="37">
         <f>(D4/P4)-1</f>
@@ -2828,9 +2830,9 @@
       <c r="D4" s="38">
         <v>0</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="36" t="str">
         <f>IF(K4&gt;0, F4/K4,"RF")</f>
-        <v>4.124939231891104</v>
+        <v>RF</v>
       </c>
       <c r="F4" s="37">
         <f>(G4/P4)-1</f>
@@ -2839,9 +2841,9 @@
       <c r="G4" s="38">
         <v>28903</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="36" t="str">
         <f>IF(K4&gt;0, I4/K4,"RF")</f>
-        <v>3.068546426835197</v>
+        <v>RF</v>
       </c>
       <c r="I4" s="37">
         <f>(J4/P4)-1</f>
@@ -2852,22 +2854,22 @@
       </c>
       <c r="K4" s="125">
         <f>IF(1-(L4/P4)&gt;0, 1-(L4/P4), 0)</f>
-        <v>0.10074444117935155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="39">
-        <v>18361</v>
+        <v>24317</v>
       </c>
       <c r="M4" s="53">
         <f>P4*Q4</f>
         <v>69543708</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="37" t="str">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
-        <v>7.7285694434260435E-2</v>
+        <v>Risk free</v>
       </c>
       <c r="O4" s="54">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>90652507.573176518</v>
+        <v>86588850.975599647</v>
       </c>
       <c r="P4" s="121">
         <v>20418</v>
@@ -3324,7 +3326,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/بترانس/بترانس.xlsx
+++ b/بترانس/بترانس.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="دارایی فعلی" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>تاریخ</t>
   </si>
@@ -43,12 +43,6 @@
     <t>اسیلاتورها</t>
   </si>
   <si>
-    <t>واگرایی</t>
-  </si>
-  <si>
-    <t>میانگین متحرک</t>
-  </si>
-  <si>
     <t>خط روند</t>
   </si>
   <si>
@@ -181,13 +175,7 @@
     <t>OB</t>
   </si>
   <si>
-    <t>HD-</t>
-  </si>
-  <si>
     <t>خروج</t>
-  </si>
-  <si>
-    <t>HD+</t>
   </si>
   <si>
     <t>middle</t>
@@ -225,13 +213,55 @@
   </si>
   <si>
     <t>میزان ضرر</t>
+  </si>
+  <si>
+    <t>99/01/28</t>
+  </si>
+  <si>
+    <t>tot_990128.png</t>
+  </si>
+  <si>
+    <t>tech_990128.png</t>
+  </si>
+  <si>
+    <t>روند صعودی</t>
+  </si>
+  <si>
+    <t>شکست سقف کانال بلند مدت، نزدیکی سقف کانال کوتاه مدت. احتمال پولبک به سقف کانال بلند مدت وجود دارد.</t>
+  </si>
+  <si>
+    <t>OB-Bearish</t>
+  </si>
+  <si>
+    <t>شیب</t>
+  </si>
+  <si>
+    <t>قیمت</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>MA20</t>
+  </si>
+  <si>
+    <t>99/01/07</t>
+  </si>
+  <si>
+    <t>اشتباه، دیدم که تو پیام ناظر یه تعداد سهم نوشته که قراره برن مجمع، بترانس هم توشون بود ولی بترانس واسه انتخاب هیات مدیره بسته شد</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +303,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="10">
@@ -331,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -921,6 +964,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -930,20 +1010,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,6 +1098,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,9 +1134,6 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,55 +1164,46 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,135 +1216,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,49 +1227,172 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1325,36 +1405,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,6 +1413,42 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,21 +1461,51 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1411,28 +1527,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1466,16 +1564,16 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="5">
-          <cell r="B5">
-            <v>86588850.975599647</v>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="F4">
+            <v>1475206321</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
@@ -1773,14 +1871,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -1793,186 +1891,176 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="51" t="s">
+      <c r="P2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="48" t="s">
+      <c r="S2" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="H3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="M3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="34"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="str">
+      <c r="B4" s="42">
         <f>IF(L4&gt;0, C4/L4,"RF")</f>
-        <v>RF</v>
-      </c>
-      <c r="C4" s="37">
+        <v>-8.9549994547710465</v>
+      </c>
+      <c r="C4" s="34">
         <f>(D4/Q4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="43">
         <v>0</v>
       </c>
-      <c r="E4" s="36" t="str">
+      <c r="E4" s="42">
         <f>IF(L4&gt;0, F4/L4,"RF")</f>
-        <v>RF</v>
-      </c>
-      <c r="F4" s="37">
+        <v>0.4358059220705745</v>
+      </c>
+      <c r="F4" s="34">
         <f>(G4/Q4)-1</f>
-        <v>0.40591634832010981</v>
-      </c>
-      <c r="G4" s="38">
+        <v>4.8666214249559303E-2</v>
+      </c>
+      <c r="G4" s="43">
         <v>28706</v>
       </c>
-      <c r="H4" s="36" t="str">
+      <c r="H4" s="42">
         <f>IF(L4&gt;0, I4/L4,"RF")</f>
-        <v>RF</v>
-      </c>
-      <c r="I4" s="37">
+        <v>9.3646933308184046</v>
+      </c>
+      <c r="I4" s="34">
         <f>(J4/Q4)-1</f>
-        <v>0.13277500244881968</v>
-      </c>
-      <c r="J4" s="38">
-        <v>23129</v>
-      </c>
-      <c r="K4" s="43">
+        <v>1.0457502960348122</v>
+      </c>
+      <c r="J4" s="43">
+        <v>56000</v>
+      </c>
+      <c r="K4" s="48">
         <f>IF(L4&gt;0, N4-M4*R4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="44">
+        <v>17304657</v>
+      </c>
+      <c r="L4" s="49">
         <f>IF(1-(M4/Q4)&gt;0, 1-(M4/Q4), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="39">
+        <v>0.11166946520216925</v>
+      </c>
+      <c r="M4" s="44">
         <v>24317</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="33">
         <f>R4*Q4</f>
-        <v>54005610</v>
-      </c>
-      <c r="O4" s="37" t="str">
+        <v>154963194</v>
+      </c>
+      <c r="O4" s="34">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
-        <v>Risk free</v>
-      </c>
-      <c r="P4" s="54">
-        <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>86588850.975599647</v>
-      </c>
-      <c r="Q4" s="54">
+        <v>1.1730330024799285E-2</v>
+      </c>
+      <c r="P4" s="35">
+        <f>[1]سرمایه!$F$4</f>
+        <v>1475206321</v>
+      </c>
+      <c r="Q4" s="35">
         <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
-        <v>20418</v>
-      </c>
-      <c r="R4" s="49">
+        <v>27373.819819819819</v>
+      </c>
+      <c r="R4" s="37">
         <f>SUM('تاریخچه خرید'!Q4:Q17)-SUM('تاریخچه فروش'!G4:G11)</f>
-        <v>2645</v>
-      </c>
-      <c r="S4" s="52" t="s">
-        <v>42</v>
+        <v>5661</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="52"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="B4:B5"/>
@@ -1989,6 +2077,16 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -1997,714 +2095,672 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T7"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:21" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="107" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="127"/>
+      <c r="D2" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="81"/>
+      <c r="H2" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="113"/>
+      <c r="J2" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="72"/>
+      <c r="L2" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="77"/>
+      <c r="N2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="77"/>
+      <c r="S2" s="65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110" t="s">
+      <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="59" t="s">
+      <c r="Q3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="110" t="s">
+      <c r="R3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="66"/>
+    </row>
+    <row r="4" spans="2:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="57">
+        <v>25070</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="78"/>
+      <c r="M4" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="58"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="54"/>
+    </row>
+    <row r="6" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="101"/>
+      <c r="G6" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="93">
+        <v>25070</v>
+      </c>
+      <c r="L6" s="101"/>
+      <c r="M6" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="92"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="83"/>
+    </row>
+    <row r="8" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="57">
+        <f>+V8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="115"/>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="111"/>
-    </row>
-    <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="86">
-        <v>1</v>
-      </c>
-      <c r="C4" s="65">
-        <v>2</v>
-      </c>
-      <c r="D4" s="88">
-        <v>3</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="86">
+      <c r="C8" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="122"/>
+      <c r="G8" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="57">
+        <v>36600</v>
+      </c>
+      <c r="K8" s="59">
         <v>25070</v>
       </c>
-      <c r="M4" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="103"/>
-      <c r="O4" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="116" t="s">
+      <c r="L8" s="122"/>
+      <c r="M8" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="82" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="96"/>
-    </row>
-    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="92">
-        <v>1</v>
-      </c>
-      <c r="C6" s="71">
-        <v>2</v>
-      </c>
-      <c r="D6" s="94">
-        <v>3</v>
-      </c>
-      <c r="E6" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="94">
-        <v>25070</v>
-      </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="71" t="s">
+      <c r="N8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" s="90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="91"/>
-    </row>
-    <row r="8" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="82"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="89"/>
+    </row>
+    <row r="9" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="58"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="86"/>
       <c r="N9" s="58"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="96"/>
-    </row>
-    <row r="10" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="90"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="91"/>
-    </row>
-    <row r="12" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="88"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="54"/>
+    </row>
+    <row r="10" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="91"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="82"/>
+    </row>
+    <row r="11" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="83"/>
+    </row>
+    <row r="12" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="57"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="57"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="82"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="89"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="53"/>
+    </row>
+    <row r="13" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="58"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="86"/>
       <c r="N13" s="58"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="96"/>
-    </row>
-    <row r="14" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="90"/>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="91"/>
-    </row>
-    <row r="16" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="88"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="54"/>
+    </row>
+    <row r="14" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="91"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="82"/>
+    </row>
+    <row r="15" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="92"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="83"/>
+    </row>
+    <row r="16" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="57"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="85"/>
       <c r="N16" s="57"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="82"/>
-    </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="89"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="53"/>
+    </row>
+    <row r="17" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="58"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="106"/>
       <c r="N17" s="58"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="83"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P25" s="12"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P28" s="12"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="111"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="150">
-    <mergeCell ref="U4:U5"/>
+  <mergeCells count="135">
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T4:T5" r:id="rId1" display="tot_990106.png"/>
-    <hyperlink ref="S4:S5" r:id="rId2" display="sig_990106.png"/>
-    <hyperlink ref="T6:T7" r:id="rId3" display="tot_990112.png"/>
-    <hyperlink ref="S6:S7" r:id="rId4" display="tech_990112.png"/>
+    <hyperlink ref="R4:R5" r:id="rId1" display="tot_990106.png"/>
+    <hyperlink ref="Q4:Q5" r:id="rId2" display="sig_990106.png"/>
+    <hyperlink ref="R6:R7" r:id="rId3" display="tot_990112.png"/>
+    <hyperlink ref="Q6:Q7" r:id="rId4" display="tech_990112.png"/>
+    <hyperlink ref="R8:R9" r:id="rId5" display="tot_990128.png"/>
+    <hyperlink ref="Q8:Q9" r:id="rId6" display="tech_990128.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2713,14 +2769,14 @@
   <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L7"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2733,491 +2789,559 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="64"/>
+      <c r="M2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="107" t="s">
+      <c r="N2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="51" t="s">
+      <c r="O2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="48" t="s">
+      <c r="R2" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="77"/>
+      <c r="T2" s="157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="H3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="L3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="120"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="157"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="str">
+      <c r="B4" s="42" t="str">
         <f>IF(K4&gt;0, C4/K4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="34">
         <f>(D4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="43">
         <v>0</v>
       </c>
-      <c r="E4" s="36" t="str">
+      <c r="E4" s="42" t="str">
         <f>IF(K4&gt;0, F4/K4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="34">
         <f>(G4/P4)-1</f>
         <v>0.41556469781565286</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="43">
         <v>28903</v>
       </c>
-      <c r="H4" s="36" t="str">
+      <c r="H4" s="42" t="str">
         <f>IF(K4&gt;0, I4/K4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="34">
         <f>(J4/P4)-1</f>
         <v>0.30913899500440789</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="43">
         <v>26730</v>
       </c>
-      <c r="K4" s="125">
+      <c r="K4" s="152">
         <f>IF(1-(L4/P4)&gt;0, 1-(L4/P4), 0)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="44">
         <v>24317</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="33">
         <f>P4*Q4</f>
         <v>69543708</v>
       </c>
-      <c r="N4" s="37" t="str">
+      <c r="N4" s="34" t="str">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
         <v>Risk free</v>
       </c>
-      <c r="O4" s="54">
-        <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>86588850.975599647</v>
-      </c>
-      <c r="P4" s="121">
+      <c r="O4" s="35">
+        <f>[1]سرمایه!$F$4</f>
+        <v>1475206321</v>
+      </c>
+      <c r="P4" s="156">
         <v>20418</v>
       </c>
-      <c r="Q4" s="122">
+      <c r="Q4" s="153">
         <v>3406</v>
       </c>
-      <c r="R4" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="52" t="s">
+      <c r="R4" s="154" t="s">
         <v>42</v>
       </c>
+      <c r="S4" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="52"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="52"/>
+      <c r="B6" s="42">
+        <f>IF(K6&gt;0, C6/K6,"RF")</f>
+        <v>-3.6559633027522938</v>
+      </c>
+      <c r="C6" s="34">
+        <f>(D6/P6)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0</v>
+      </c>
+      <c r="E6" s="42">
+        <f>IF(K6&gt;0, F6/K6,"RF")</f>
+        <v>-3.6559633027522938</v>
+      </c>
+      <c r="F6" s="34">
+        <f>(G6/P6)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G6" s="43">
+        <v>0</v>
+      </c>
+      <c r="H6" s="42">
+        <f>IF(K6&gt;0, I6/K6,"RF")</f>
+        <v>2.1325906509392749</v>
+      </c>
+      <c r="I6" s="34">
+        <f>(J6/P6)-1</f>
+        <v>0.58331839636732985</v>
+      </c>
+      <c r="J6" s="43">
+        <v>53000</v>
+      </c>
+      <c r="K6" s="152">
+        <f>IF(1-(L6/P6)&gt;0, 1-(L6/P6), 0)</f>
+        <v>0.27352572145545795</v>
+      </c>
+      <c r="L6" s="44">
+        <v>24318</v>
+      </c>
+      <c r="M6" s="33">
+        <f>P6*Q6</f>
+        <v>100957584</v>
+      </c>
+      <c r="N6" s="34">
+        <f>IF( (P6-L6)*Q6/O6&gt;0, (P6-L6)*Q6/O6, "Risk free")</f>
+        <v>1.8719073804727822E-2</v>
+      </c>
+      <c r="O6" s="35">
+        <f>[1]سرمایه!$F$4</f>
+        <v>1475206321</v>
+      </c>
+      <c r="P6" s="156">
+        <v>33474</v>
+      </c>
+      <c r="Q6" s="153">
+        <v>3016</v>
+      </c>
+      <c r="R6" s="175"/>
+      <c r="S6" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="52"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="128"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="130"/>
       <c r="D8" s="132"/>
-      <c r="E8" s="128"/>
+      <c r="E8" s="138"/>
       <c r="F8" s="130"/>
       <c r="G8" s="132"/>
-      <c r="H8" s="128"/>
+      <c r="H8" s="138"/>
       <c r="I8" s="130"/>
       <c r="J8" s="132"/>
-      <c r="K8" s="128"/>
+      <c r="K8" s="138"/>
       <c r="L8" s="132"/>
-      <c r="M8" s="128"/>
+      <c r="M8" s="138"/>
       <c r="N8" s="130"/>
       <c r="O8" s="130"/>
       <c r="P8" s="130"/>
       <c r="Q8" s="132"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="136"/>
+      <c r="R8" s="174"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="128"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="129"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="131"/>
       <c r="D9" s="133"/>
-      <c r="E9" s="129"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="131"/>
       <c r="G9" s="133"/>
-      <c r="H9" s="129"/>
+      <c r="H9" s="139"/>
       <c r="I9" s="131"/>
       <c r="J9" s="133"/>
-      <c r="K9" s="129"/>
+      <c r="K9" s="139"/>
       <c r="L9" s="133"/>
-      <c r="M9" s="129"/>
+      <c r="M9" s="139"/>
       <c r="N9" s="131"/>
       <c r="O9" s="131"/>
       <c r="P9" s="131"/>
       <c r="Q9" s="133"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="137"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="129"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="138"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="150"/>
-      <c r="T10" s="146"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="148"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="139"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="147"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="149"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="128"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="130"/>
       <c r="D12" s="132"/>
-      <c r="E12" s="128"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="130"/>
       <c r="G12" s="132"/>
-      <c r="H12" s="128"/>
+      <c r="H12" s="138"/>
       <c r="I12" s="130"/>
       <c r="J12" s="132"/>
-      <c r="K12" s="128"/>
+      <c r="K12" s="138"/>
       <c r="L12" s="132"/>
-      <c r="M12" s="128"/>
+      <c r="M12" s="138"/>
       <c r="N12" s="130"/>
       <c r="O12" s="130"/>
       <c r="P12" s="130"/>
       <c r="Q12" s="132"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="136"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="128"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="129"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="131"/>
       <c r="D13" s="133"/>
-      <c r="E13" s="129"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="131"/>
       <c r="G13" s="133"/>
-      <c r="H13" s="129"/>
+      <c r="H13" s="139"/>
       <c r="I13" s="131"/>
       <c r="J13" s="133"/>
-      <c r="K13" s="129"/>
+      <c r="K13" s="139"/>
       <c r="L13" s="133"/>
-      <c r="M13" s="129"/>
+      <c r="M13" s="139"/>
       <c r="N13" s="131"/>
       <c r="O13" s="131"/>
       <c r="P13" s="131"/>
       <c r="Q13" s="133"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="137"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="129"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="138"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="146"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="148"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="139"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="147"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="149"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="128"/>
+      <c r="B16" s="138"/>
       <c r="C16" s="130"/>
       <c r="D16" s="132"/>
-      <c r="E16" s="128"/>
+      <c r="E16" s="138"/>
       <c r="F16" s="130"/>
       <c r="G16" s="132"/>
-      <c r="H16" s="128"/>
+      <c r="H16" s="138"/>
       <c r="I16" s="130"/>
       <c r="J16" s="132"/>
-      <c r="K16" s="128"/>
+      <c r="K16" s="138"/>
       <c r="L16" s="132"/>
-      <c r="M16" s="128"/>
+      <c r="M16" s="138"/>
       <c r="N16" s="130"/>
       <c r="O16" s="130"/>
       <c r="P16" s="130"/>
       <c r="Q16" s="132"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="136"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="128"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="129"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="131"/>
       <c r="D17" s="133"/>
-      <c r="E17" s="129"/>
+      <c r="E17" s="139"/>
       <c r="F17" s="131"/>
       <c r="G17" s="133"/>
-      <c r="H17" s="129"/>
+      <c r="H17" s="139"/>
       <c r="I17" s="131"/>
       <c r="J17" s="133"/>
-      <c r="K17" s="129"/>
+      <c r="K17" s="139"/>
       <c r="L17" s="133"/>
-      <c r="M17" s="129"/>
+      <c r="M17" s="139"/>
       <c r="N17" s="131"/>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="133"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="137"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="129"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
@@ -3242,76 +3366,54 @@
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R4:R5" r:id="rId1" display="sig_990106.png"/>
@@ -3324,9 +3426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3344,158 +3446,186 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="F2" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="120" t="s">
+      <c r="G2" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="157" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="34"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="29" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="120"/>
+      <c r="J3" s="157"/>
     </row>
     <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="167">
+      <c r="B4" s="162">
         <f>D4-(F4*G4)</f>
         <v>4378033</v>
       </c>
-      <c r="C4" s="168">
+      <c r="C4" s="163">
         <f>E4/F4-1</f>
         <v>0.28176119110588704</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="162">
         <f>E4*G4</f>
         <v>19916131</v>
       </c>
       <c r="E4" s="164">
         <v>26171</v>
       </c>
-      <c r="F4" s="157">
+      <c r="F4" s="169">
         <v>20418</v>
       </c>
-      <c r="G4" s="154">
+      <c r="G4" s="165">
         <v>761</v>
       </c>
-      <c r="H4" s="162" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="161" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="154" t="s">
-        <v>48</v>
+      <c r="H4" s="158" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="173" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="165" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="162"/>
       <c r="E5" s="164"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="154"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="165"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="164"/>
-      <c r="C6" s="169"/>
+      <c r="C6" s="166"/>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="154"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="165"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="164"/>
-      <c r="C7" s="169"/>
+      <c r="C7" s="166"/>
       <c r="D7" s="164"/>
       <c r="E7" s="164"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="154"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="165"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="154"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="165"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="154"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="154"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="154"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
@@ -3512,34 +3642,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4:H5" r:id="rId1" display="tech_990112.png"/>

--- a/بترانس/بترانس.xlsx
+++ b/بترانس/بترانس.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="دارایی فعلی" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1101,93 +1101,243 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1204,18 +1354,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,12 +1371,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,232 +1383,130 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1485,6 +1515,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,40 +1530,7 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1874,59 +1874,59 @@
       <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="45" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
@@ -1963,104 +1963,114 @@
       <c r="M3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="40"/>
-    </row>
-    <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="42">
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34">
         <f>IF(L4&gt;0, C4/L4,"RF")</f>
         <v>-8.9549994547710465</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="35">
         <f>(D4/Q4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="34">
         <f>IF(L4&gt;0, F4/L4,"RF")</f>
         <v>0.4358059220705745</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="35">
         <f>(G4/Q4)-1</f>
         <v>4.8666214249559303E-2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="36">
         <v>28706</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="34">
         <f>IF(L4&gt;0, I4/L4,"RF")</f>
         <v>9.3646933308184046</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="35">
         <f>(J4/Q4)-1</f>
         <v>1.0457502960348122</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="36">
         <v>56000</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="41">
         <f>IF(L4&gt;0, N4-M4*R4, 0)</f>
         <v>17304657</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="42">
         <f>IF(1-(M4/Q4)&gt;0, 1-(M4/Q4), 0)</f>
         <v>0.11166946520216925</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="37">
         <v>24317</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="51">
         <f>R4*Q4</f>
         <v>154963194</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="35">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
         <v>1.1730330024799285E-2</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="52">
         <f>[1]سرمایه!$F$4</f>
         <v>1475206321</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="52">
         <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
         <v>27373.819819819819</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="47">
         <f>SUM('تاریخچه خرید'!Q4:Q17)-SUM('تاریخچه فروش'!G4:G11)</f>
         <v>5661</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="42"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="32"/>
+    <row r="5" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="B4:B5"/>
@@ -2077,16 +2087,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -2099,64 +2099,64 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8:Q9"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8:R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="126" t="s">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="80" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="112" t="s">
+      <c r="G2" s="125"/>
+      <c r="H2" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="71" t="s">
+      <c r="I2" s="89"/>
+      <c r="J2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="76" t="s">
+      <c r="K2" s="118"/>
+      <c r="L2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="50" t="s">
+      <c r="M2" s="98"/>
+      <c r="N2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="76" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="65" t="s">
+      <c r="R2" s="98"/>
+      <c r="S2" s="115" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>70</v>
       </c>
@@ -2208,386 +2208,386 @@
       <c r="R3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="66"/>
-    </row>
-    <row r="4" spans="2:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="S3" s="116"/>
+    </row>
+    <row r="4" spans="2:19" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="61" t="s">
+      <c r="F4" s="122"/>
+      <c r="G4" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="62">
         <v>25070</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="59" t="s">
+      <c r="L4" s="122"/>
+      <c r="M4" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="116" t="s">
+      <c r="Q4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="86" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="58"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="54"/>
-    </row>
-    <row r="6" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="91" t="s">
+    <row r="5" spans="2:19" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="63"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="96"/>
+    </row>
+    <row r="6" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="95" t="s">
+      <c r="F6" s="66"/>
+      <c r="G6" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="94">
         <v>25070</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="95" t="s">
+      <c r="L6" s="66"/>
+      <c r="M6" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="91" t="s">
+      <c r="N6" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="104" t="s">
+      <c r="O6" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="114" t="s">
+      <c r="P6" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="118" t="s">
+      <c r="Q6" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="97" t="s">
+      <c r="R6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="82" t="s">
+      <c r="S6" s="92" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="92"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="83"/>
-    </row>
-    <row r="8" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57">
+    <row r="7" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="65"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="93"/>
+    </row>
+    <row r="8" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="62">
         <f>+V8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="85" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="62">
         <v>36600</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="90">
         <v>25070</v>
       </c>
-      <c r="L8" s="122"/>
-      <c r="M8" s="85" t="s">
+      <c r="L8" s="68"/>
+      <c r="M8" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="57" t="s">
+      <c r="N8" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="67" t="s">
+      <c r="O8" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="120" t="s">
+      <c r="Q8" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="124" t="s">
+      <c r="R8" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="86" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="54"/>
-    </row>
-    <row r="10" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="91"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="82"/>
-    </row>
-    <row r="11" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="92"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="83"/>
-    </row>
-    <row r="12" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="53"/>
-    </row>
-    <row r="13" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="58"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="54"/>
-    </row>
-    <row r="14" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="91"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="82"/>
-    </row>
-    <row r="15" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="92"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="83"/>
-    </row>
-    <row r="16" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="53"/>
-    </row>
-    <row r="17" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="58"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="111"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="63"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="96"/>
+    </row>
+    <row r="10" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="64"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="92"/>
+    </row>
+    <row r="11" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="65"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="93"/>
+    </row>
+    <row r="12" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="62"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="86"/>
+    </row>
+    <row r="13" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="63"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="96"/>
+    </row>
+    <row r="14" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="64"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="92"/>
+    </row>
+    <row r="15" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="65"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="93"/>
+    </row>
+    <row r="16" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="62"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="86"/>
+    </row>
+    <row r="17" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="63"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="87"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -2607,14 +2607,125 @@
       <c r="R18" s="24"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N25" s="9"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="R12:R13"/>
@@ -2639,117 +2750,6 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R4:R5" r:id="rId1" display="tot_990106.png"/>
@@ -2772,62 +2772,62 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.77734375" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="63" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="38" t="s">
+      <c r="L2" s="114"/>
+      <c r="M2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="77"/>
-      <c r="T2" s="157" t="s">
+      <c r="S2" s="98"/>
+      <c r="T2" s="128" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2861,417 +2861,535 @@
       <c r="L3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="36"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="46"/>
       <c r="R3" s="21" t="s">
         <v>34</v>
       </c>
       <c r="S3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="157"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="42" t="str">
+      <c r="T3" s="128"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="str">
         <f>IF(K4&gt;0, C4/K4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="35">
         <f>(D4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
-      <c r="E4" s="42" t="str">
+      <c r="E4" s="34" t="str">
         <f>IF(K4&gt;0, F4/K4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="35">
         <f>(G4/P4)-1</f>
         <v>0.41556469781565286</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="36">
         <v>28903</v>
       </c>
-      <c r="H4" s="42" t="str">
+      <c r="H4" s="34" t="str">
         <f>IF(K4&gt;0, I4/K4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="35">
         <f>(J4/P4)-1</f>
         <v>0.30913899500440789</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="36">
         <v>26730</v>
       </c>
-      <c r="K4" s="152">
+      <c r="K4" s="133">
         <f>IF(1-(L4/P4)&gt;0, 1-(L4/P4), 0)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="37">
         <v>24317</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="51">
         <f>P4*Q4</f>
         <v>69543708</v>
       </c>
-      <c r="N4" s="34" t="str">
+      <c r="N4" s="35" t="str">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
         <v>Risk free</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="52">
         <f>[1]سرمایه!$F$4</f>
         <v>1475206321</v>
       </c>
-      <c r="P4" s="156">
+      <c r="P4" s="129">
         <v>20418</v>
       </c>
-      <c r="Q4" s="153">
+      <c r="Q4" s="130">
         <v>3406</v>
       </c>
-      <c r="R4" s="154" t="s">
+      <c r="R4" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="61" t="s">
+      <c r="S4" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="42"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="32"/>
-    </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="42">
+    <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="50"/>
+    </row>
+    <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34">
         <f>IF(K6&gt;0, C6/K6,"RF")</f>
         <v>-3.6559633027522938</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="35">
         <f>(D6/P6)-1</f>
         <v>-1</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="34">
         <f>IF(K6&gt;0, F6/K6,"RF")</f>
         <v>-3.6559633027522938</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="35">
         <f>(G6/P6)-1</f>
         <v>-1</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="36">
         <v>0</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="34">
         <f>IF(K6&gt;0, I6/K6,"RF")</f>
         <v>2.1325906509392749</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="35">
         <f>(J6/P6)-1</f>
         <v>0.58331839636732985</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="36">
         <v>53000</v>
       </c>
-      <c r="K6" s="152">
+      <c r="K6" s="133">
         <f>IF(1-(L6/P6)&gt;0, 1-(L6/P6), 0)</f>
         <v>0.27352572145545795</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="37">
         <v>24318</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="51">
         <f>P6*Q6</f>
         <v>100957584</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="35">
         <f>IF( (P6-L6)*Q6/O6&gt;0, (P6-L6)*Q6/O6, "Risk free")</f>
         <v>1.8719073804727822E-2</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="52">
         <f>[1]سرمایه!$F$4</f>
         <v>1475206321</v>
       </c>
-      <c r="P6" s="156">
+      <c r="P6" s="129">
         <v>33474</v>
       </c>
-      <c r="Q6" s="153">
+      <c r="Q6" s="130">
         <v>3016</v>
       </c>
-      <c r="R6" s="175"/>
-      <c r="S6" s="61" t="s">
+      <c r="R6" s="134"/>
+      <c r="S6" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="42"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="32"/>
-    </row>
-    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="138"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="174"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="128"/>
-    </row>
-    <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="139"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="129"/>
-    </row>
-    <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="140"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="150"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="148"/>
-    </row>
-    <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="141"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="149"/>
-    </row>
-    <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="138"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="128"/>
-    </row>
-    <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="139"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="129"/>
-    </row>
-    <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="140"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="148"/>
-    </row>
-    <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="141"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="149"/>
-    </row>
-    <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="138"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="128"/>
-    </row>
-    <row r="17" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="139"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="129"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="50"/>
+    </row>
+    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="135"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="141"/>
+    </row>
+    <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="136"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="142"/>
+    </row>
+    <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="143"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="151"/>
+    </row>
+    <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="144"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="152"/>
+    </row>
+    <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="135"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="139"/>
+      <c r="R12" s="157"/>
+      <c r="S12" s="158"/>
+      <c r="T12" s="141"/>
+    </row>
+    <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="136"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="159"/>
+      <c r="T13" s="142"/>
+    </row>
+    <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="143"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="151"/>
+    </row>
+    <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="144"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="152"/>
+    </row>
+    <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="135"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="158"/>
+      <c r="T16" s="141"/>
+    </row>
+    <row r="17" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="136"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="150"/>
+      <c r="S17" s="159"/>
+      <c r="T17" s="142"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
@@ -3296,124 +3414,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R4:R5" r:id="rId1" display="sig_990106.png"/>
@@ -3431,173 +3431,201 @@
       <selection pane="bottomLeft" activeCell="B29" sqref="B29:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="157" t="s">
+      <c r="E2" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="157" t="s">
+      <c r="G2" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="157" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="128" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="38"/>
+    <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="26" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="157"/>
-    </row>
-    <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="162">
+      <c r="J3" s="128"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="173">
         <f>D4-(F4*G4)</f>
         <v>4378033</v>
       </c>
-      <c r="C4" s="163">
+      <c r="C4" s="174">
         <f>E4/F4-1</f>
         <v>0.28176119110588704</v>
       </c>
-      <c r="D4" s="162">
+      <c r="D4" s="173">
         <f>E4*G4</f>
         <v>19916131</v>
       </c>
-      <c r="E4" s="164">
+      <c r="E4" s="170">
         <v>26171</v>
       </c>
-      <c r="F4" s="169">
+      <c r="F4" s="163">
         <v>20418</v>
       </c>
-      <c r="G4" s="165">
+      <c r="G4" s="160">
         <v>761</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="173" t="s">
+      <c r="I4" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="165" t="s">
+      <c r="J4" s="160" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="165"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="164"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="165"/>
-    </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="164"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="165"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="165"/>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="165"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="165"/>
-    </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="165"/>
+    <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="160"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="170"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="160"/>
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="170"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="160"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="160"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="160"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="160"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
@@ -3614,34 +3642,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4:H5" r:id="rId1" display="tech_990112.png"/>
